--- a/Analog-Signal-Components/PAM-2025/PAM-modules/detector-module/detector-module-BOM.xlsx
+++ b/Analog-Signal-Components/PAM-2025/PAM-modules/detector-module/detector-module-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmart\Desktop\Studium\5. Praxissemester\Seti\PAM\PAM_modules\det\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/Analog-Signal-Components/PAM-2025/PAM-modules/detector-module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9A75C-AD6C-4351-B719-9898C91E96D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031458F-5068-C34C-8EDE-0DC9222D47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98620" yWindow="12100" windowWidth="21800" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,8 +364,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,34 +646,34 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" customWidth="1"/>
-    <col min="11" max="11" width="9.46484375" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -930,13 +930,13 @@
         <v>162.97999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
         <v>22</v>
       </c>
@@ -945,10 +945,10 @@
         <v>171.42999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -980,7 +980,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>151.72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>A17*2</f>
         <v>2</v>
@@ -1124,7 +1124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
